--- a/001_General_Spec/VG_Acronym_Term.xlsx
+++ b/001_General_Spec/VG_Acronym_Term.xlsx
@@ -294,12 +294,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -329,18 +335,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -647,442 +650,442 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>79</v>
       </c>
     </row>
